--- a/Exams/Exam-01/Program_CheckList.xlsx
+++ b/Exams/Exam-01/Program_CheckList.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Dropbox\Personal\Cursos\Backend Development\Repository\Exams\Exam-03\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Dropbox\Personal\Cursos\Services Development\Repository\Exams\Exam-01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEE6F4E0-41D4-49D6-A4C5-BA527B302327}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC2E72A0-1649-4BDB-941C-82290C6A1672}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -477,7 +477,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -515,7 +515,7 @@
         <v>0.5</v>
       </c>
       <c r="D2" s="12">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="E2" s="3"/>
     </row>
@@ -531,7 +531,7 @@
       </c>
       <c r="D3" s="13">
         <f>(C5*C3)/30</f>
-        <v>4</v>
+        <v>2.2666666666666666</v>
       </c>
       <c r="E3" s="8"/>
     </row>
@@ -552,7 +552,7 @@
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="15">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="D5" s="11"/>
       <c r="E5" s="2"/>
@@ -578,7 +578,7 @@
       <c r="C7" s="7"/>
       <c r="D7" s="14">
         <f>SUM(D2:D6)</f>
-        <v>5</v>
+        <v>2.7666666666666666</v>
       </c>
       <c r="E7" s="7"/>
     </row>

--- a/Exams/Exam-01/Program_CheckList.xlsx
+++ b/Exams/Exam-01/Program_CheckList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Dropbox\Personal\Cursos\Services Development\Repository\Exams\Exam-01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC2E72A0-1649-4BDB-941C-82290C6A1672}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4489D102-EBB5-4E30-9ED9-38A04359A861}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Creterio</t>
   </si>
@@ -58,6 +58,12 @@
   </si>
   <si>
     <t>Cumple con Clean Code</t>
+  </si>
+  <si>
+    <t>Codgio comfuso</t>
+  </si>
+  <si>
+    <t>Funciones con muchs responsabilidades</t>
   </si>
 </sst>
 </file>
@@ -474,10 +480,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -566,7 +572,7 @@
         <v>0.5</v>
       </c>
       <c r="D6" s="12">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="E6" s="3"/>
     </row>
@@ -578,13 +584,23 @@
       <c r="C7" s="7"/>
       <c r="D7" s="14">
         <f>SUM(D2:D6)</f>
-        <v>2.7666666666666666</v>
+        <v>2.5666666666666664</v>
       </c>
       <c r="E7" s="7"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B3">
